--- a/target/classes/excel/pen_output.xlsx
+++ b/target/classes/excel/pen_output.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC57242-0293-423F-9BCF-C3A43146FBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B16EE6-5B24-46B9-A65F-D3434320C475}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8085" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,73 +26,37 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
-  <si>
-    <t>Raggruppamento</t>
-  </si>
-  <si>
-    <t>Nome penna:</t>
-  </si>
-  <si>
-    <t>${_group.item.name}</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Descrizione</t>
-  </si>
-  <si>
-    <t>${penadv.name}</t>
-  </si>
-  <si>
-    <t>${penadv.cost}</t>
-  </si>
-  <si>
-    <t>${penadv.desc}</t>
-  </si>
-  <si>
-    <t>Totale</t>
-  </si>
-  <si>
-    <t>Gran Totale</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+  <si>
+    <t>XML Demo</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>${pen.name}</t>
+  </si>
+  <si>
+    <t>${pen.srNo}</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>SrNo</t>
+  </si>
+  <si>
+    <t>${pen.TestMessage()}</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Bic</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>La seconda Bic</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Stylus</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Holy</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -99,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,42 +73,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,88 +95,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,166 +380,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="0"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="true"/>
+    <col min="2" max="2" width="11.5703125" customWidth="true"/>
+    <col min="3" max="3" width="20.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.0" customHeight="true">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3" customHeight="true"/>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A3" s="6" t="s">
+    <row r="2" ht="15.0" customHeight="true"/>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23.25" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1.2000000476837158</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1.2000000476837158</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" t="s" s="0">
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>2535.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <f>SUM(B6:B7)</f>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="true">
-      <c r="A10" t="s" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="23.25" customHeight="true">
-      <c r="A12" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n" s="1">
-        <v>3.4000000953674316</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <f>SUM(B13)</f>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="true">
-      <c r="A16" t="s" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="23.25" customHeight="true">
-      <c r="A18" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="15.0" customHeight="true">
-      <c r="A19" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="15.0" customHeight="true">
-      <c r="A20" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1">
-        <f>SUM(B19)</f>
-      </c>
-    </row>
-    <row r="22" ht="15.0" customHeight="true">
-      <c r="A22" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4">
-        <f>SUM(B8,B14,B20)</f>
-      </c>
-    </row>
+    </row>
+    <row r="5" ht="15.0" customHeight="true"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="default" pageOrder="downThenOver" blackAndWhite="false" firstPageNumber="1" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
 </worksheet>
 </file>